--- a/MPSGEresults.xlsx
+++ b/MPSGEresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\GitFolders\WiNnat_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EA1D61-B2F2-46B6-A4F8-EF622A556A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE7DE68-C56A-43C5-9561-CBE1B16352DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7365" yWindow="-13800" windowWidth="28800" windowHeight="11430" xr2:uid="{8939255D-FFBD-423C-9E5A-44F02495FB0E}"/>
+    <workbookView xWindow="0" yWindow="1068" windowWidth="23040" windowHeight="11436" xr2:uid="{8939255D-FFBD-423C-9E5A-44F02495FB0E}"/>
   </bookViews>
   <sheets>
     <sheet name="WNDCnatTest" sheetId="1" r:id="rId1"/>
